--- a/results/pvalue_SIDER_rare_DGI_AUPR.xlsx
+++ b/results/pvalue_SIDER_rare_DGI_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.219</t>
+          <t>0.008</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.048</t>
+          <t>8.732</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.688</t>
+          <t>8.213</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-1.456</t>
+          <t>-4.888</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-8.766</t>
+          <t>-31.337</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>40.025</t>
+          <t>40.032</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40.126</t>
+          <t>40.134</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.277</t>
+          <t>8.276</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.646</t>
+          <t>9.644</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.391</t>
+          <t>27.706</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
